--- a/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3213647307639892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4507885334264731</v>
+        <v>0.4507885334264732</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3363261805472743</v>
@@ -697,7 +697,7 @@
         <v>0.3664585524856161</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.479216180233321</v>
+        <v>0.4792161802333211</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3025693676244696</v>
+        <v>0.3067763548532905</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1952848932089754</v>
+        <v>0.1916940084581809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2682373511455641</v>
+        <v>0.2676292853577957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3928622512136842</v>
+        <v>0.3935833339751932</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2801764280519812</v>
+        <v>0.2745006433166102</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3012054922855969</v>
+        <v>0.3037574306699788</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3525116283922505</v>
+        <v>0.3550562494425165</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4595213508659053</v>
+        <v>0.461836737866061</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3060343873735307</v>
+        <v>0.3052875747672534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.260971583410664</v>
+        <v>0.2635422416155124</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3263288053832857</v>
+        <v>0.3278916609193187</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4417375943939629</v>
+        <v>0.4420030455297761</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.424560943604851</v>
+        <v>0.4258051314477844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3030086619647098</v>
+        <v>0.2988294225629244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3833703798896648</v>
+        <v>0.3821799736631362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5100582280294246</v>
+        <v>0.5063812733187584</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4028434538294771</v>
+        <v>0.3942415357652897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.423970350717827</v>
+        <v>0.4231329476362751</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4709979394446196</v>
+        <v>0.4759869021618721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5521811555218515</v>
+        <v>0.5535258385288494</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3917034319472066</v>
+        <v>0.389724416370428</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3413484477308067</v>
+        <v>0.3430327422028678</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4061276582241677</v>
+        <v>0.409507805126445</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5164030298745647</v>
+        <v>0.5193694975309062</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3323813404035001</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4622819969607888</v>
+        <v>0.4622819969607889</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2867658766457044</v>
+        <v>0.2865979066669357</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1760148155596352</v>
+        <v>0.1824488059562675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2531790128511324</v>
+        <v>0.2559403240149912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3397284853646859</v>
+        <v>0.340869455569599</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3903569135657611</v>
+        <v>0.3891762597247893</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3081554967504041</v>
+        <v>0.3080658577269567</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3252086914219101</v>
+        <v>0.3246937015870603</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4898689388557216</v>
+        <v>0.4911868211978546</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3477565361586125</v>
+        <v>0.3499496687589674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2557420471742627</v>
+        <v>0.2559453118579359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3022534563317793</v>
+        <v>0.3044910655082741</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4303486399461499</v>
+        <v>0.4290812136372132</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3775974977221216</v>
+        <v>0.3715241079172953</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2507266629170998</v>
+        <v>0.2573247787469033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3387981011994097</v>
+        <v>0.3381659649933907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4450738698447739</v>
+        <v>0.4440615262903681</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.480443663617541</v>
+        <v>0.4756673218383515</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3974186675056966</v>
+        <v>0.398104469331757</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4120883156394952</v>
+        <v>0.4120909280105108</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5692977101350181</v>
+        <v>0.5679944810440323</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4116167071868783</v>
+        <v>0.4141315313728385</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3150077979563682</v>
+        <v>0.3133048705709698</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3624092234507086</v>
+        <v>0.363194788404537</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4958394751898889</v>
+        <v>0.4960652016007024</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3697816210575142</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4001987206891779</v>
+        <v>0.4001987206891778</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4110202562391887</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3654956088058435</v>
+        <v>0.3657465485602566</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1449240026322066</v>
+        <v>0.1470330176082968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2678591857082609</v>
+        <v>0.2711336270851245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3200718912483158</v>
+        <v>0.3241279629128002</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3553675661725214</v>
+        <v>0.3567297549663151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1541597912727772</v>
+        <v>0.1550628940332487</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3138307326339346</v>
+        <v>0.3192729085974619</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3574362673465109</v>
+        <v>0.3542463128014191</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3715212803995388</v>
+        <v>0.3728866984240621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.159945836132426</v>
+        <v>0.161004138170716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3100401159292742</v>
+        <v>0.3091541552702483</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3554068547616651</v>
+        <v>0.3514077489856288</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4714228639483841</v>
+        <v>0.4764923102497373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2319972266446075</v>
+        <v>0.2315777780820054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3724608169030425</v>
+        <v>0.3785241001284337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4283095899492503</v>
+        <v>0.4244378932820003</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4603291324702513</v>
+        <v>0.4599532331689693</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2403912254079963</v>
+        <v>0.2397527065545786</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.42076157736834</v>
+        <v>0.4251384005418461</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4409183511163599</v>
+        <v>0.4458977751094155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4476063546167314</v>
+        <v>0.4496395132369307</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2215677343711837</v>
+        <v>0.221939186015194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3826617251074681</v>
+        <v>0.3817112267134943</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4233031784775406</v>
+        <v>0.4205132635020506</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3488907322623254</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3888136412933663</v>
+        <v>0.3888136412933664</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4026401358862897</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3366550284722908</v>
+        <v>0.3287771987145484</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2326498258870346</v>
+        <v>0.2276211348198965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1794562082731095</v>
+        <v>0.1706808171899243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2786737337090031</v>
+        <v>0.2846935599489848</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3671817430036473</v>
+        <v>0.3752157301913632</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2876196335982985</v>
+        <v>0.2888640336469806</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2994020999762323</v>
+        <v>0.3032891385616558</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3478527227351471</v>
+        <v>0.3434183880774115</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3679013148380207</v>
+        <v>0.3670757018978369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2685678203263808</v>
+        <v>0.2758692795285766</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2537371347569412</v>
+        <v>0.2517378147648178</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3237294441386283</v>
+        <v>0.3320393157629228</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4340564286633648</v>
+        <v>0.4374641972627307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3291431513678559</v>
+        <v>0.323227589852525</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2628333477490451</v>
+        <v>0.2588109266022301</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4081875977332884</v>
+        <v>0.4146511177003081</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4674718223622658</v>
+        <v>0.4686607948469296</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3832563751438832</v>
+        <v>0.3852048088159852</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4003574850691078</v>
+        <v>0.3992035029229012</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4395795226331819</v>
+        <v>0.4363240561994776</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.44140575564038</v>
+        <v>0.4421596289986495</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3411236792485915</v>
+        <v>0.3427616809984467</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3213232085794242</v>
+        <v>0.3182770818093492</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.40290843881276</v>
+        <v>0.4121136396118445</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4222095625148667</v>
+        <v>0.4229958718319368</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2227397841501531</v>
+        <v>0.221602894998367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2835751982898114</v>
+        <v>0.286114460303341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06509505739196397</v>
+        <v>0.06561899472494166</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.613101381415545</v>
+        <v>0.606479795599468</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3165444042347959</v>
+        <v>0.3070995843295547</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4201394126987361</v>
+        <v>0.4198073144085372</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1085090402158266</v>
+        <v>0.1066539335494853</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5405778355498362</v>
+        <v>0.5423198073173839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2837538969943825</v>
+        <v>0.2869362518661302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3705604549908673</v>
+        <v>0.3678758987171563</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09307199770177439</v>
+        <v>0.09409605898192029</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5697877334052993</v>
+        <v>0.5672572273740314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3437830325668688</v>
+        <v>0.3557230115082531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.42120737267377</v>
+        <v>0.4153914505170917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1293584387831148</v>
+        <v>0.1284369951238998</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7503506309793477</v>
+        <v>0.7441579586128564</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4459242890531182</v>
+        <v>0.4453096968916018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.550276270927737</v>
+        <v>0.548392414192683</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.173809692950526</v>
+        <v>0.1706364208993909</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6393181834759134</v>
+        <v>0.6441284660753596</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3744688678030814</v>
+        <v>0.384212890064235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4596290845777106</v>
+        <v>0.4630565553523687</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1396936566284706</v>
+        <v>0.1384408609651384</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3435308133157088</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4239504640864284</v>
+        <v>0.4239504640864285</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4506137324152846</v>
@@ -1365,7 +1365,7 @@
         <v>0.4164952219744731</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.428545143575175</v>
+        <v>0.4285451435751749</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4150639362337831</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3108237953519857</v>
+        <v>0.3147748101899682</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1053968244629152</v>
+        <v>0.1032321223632243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2919181280393067</v>
+        <v>0.2906046948233105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3678685786044165</v>
+        <v>0.3698333025008588</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.394292176602557</v>
+        <v>0.3914249438027571</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1471821564361169</v>
+        <v>0.1505149171586451</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.356400309357752</v>
+        <v>0.3548596250515526</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3824968568365784</v>
+        <v>0.3828057436948507</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3742925341062852</v>
+        <v>0.3758096450888379</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1402650260635632</v>
+        <v>0.1363278605809511</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3429289229418848</v>
+        <v>0.3415102573603707</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.391419032095002</v>
+        <v>0.3896327730473425</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4376512345531837</v>
+        <v>0.438598704847606</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1905340686694072</v>
+        <v>0.1877788985547178</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4069284649263106</v>
+        <v>0.4080261851144641</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4761779066870855</v>
+        <v>0.4795092254282232</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.50938135736673</v>
+        <v>0.5110552826831252</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2414747105239686</v>
+        <v>0.2459487753969955</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4766562611013892</v>
+        <v>0.4742009090615693</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4830759747837354</v>
+        <v>0.4768508514836784</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4550415282629329</v>
+        <v>0.460070098431272</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2052360712843182</v>
+        <v>0.2022220483949997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4274855988620984</v>
+        <v>0.4264196684304598</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4629224768296512</v>
+        <v>0.4642342148238519</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.4650344889899679</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4108117828661157</v>
+        <v>0.4108117828661156</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.455065960833745</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4027519585513226</v>
+        <v>0.408858117671875</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1742838404320607</v>
+        <v>0.1746638147796676</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3621074795668366</v>
+        <v>0.3595402593601246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2517901110281744</v>
+        <v>0.2545750058193082</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4246991301322517</v>
+        <v>0.4202678467788496</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2244422495512791</v>
+        <v>0.224282423813554</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4248919003900069</v>
+        <v>0.4271564878693003</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3779538980483212</v>
+        <v>0.3759431633419268</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4279735596096611</v>
+        <v>0.4265555268732077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2078507098758756</v>
+        <v>0.2093840810999238</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4063440981406365</v>
+        <v>0.4032565451134552</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3285291129445489</v>
+        <v>0.3250489194032488</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4897281807253022</v>
+        <v>0.490456587221641</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2403967888770847</v>
+        <v>0.2387322577015972</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4435684874818743</v>
+        <v>0.4390804185728598</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3274501494757267</v>
+        <v>0.3324071978168074</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5027199923415137</v>
+        <v>0.49949433904364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2949604504541357</v>
+        <v>0.2936400514833136</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.502880823163105</v>
+        <v>0.5045238396569026</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.446599245381043</v>
+        <v>0.4457607160548808</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4846830281075191</v>
+        <v>0.4813753415225946</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2554206594749662</v>
+        <v>0.2565297278329426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4643132582961479</v>
+        <v>0.4619666814278174</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3766383216136414</v>
+        <v>0.3771414027118295</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3829155127394457</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3028382324987578</v>
+        <v>0.3028382324987577</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.5160840489169967</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4179644590375785</v>
+        <v>0.4141938702732271</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2127564584343759</v>
+        <v>0.2130982545936393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3509209185531997</v>
+        <v>0.3517283608866478</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.271390880113447</v>
+        <v>0.2685011394157575</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4779357688445474</v>
+        <v>0.47626519801477</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3331341500216095</v>
+        <v>0.3321097501825432</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4515334989575053</v>
+        <v>0.4483525491519256</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3257918481719164</v>
+        <v>0.3245150029018867</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.459894444434633</v>
+        <v>0.4587710051441866</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.282870969132793</v>
+        <v>0.284257372441391</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4103077620282592</v>
+        <v>0.4106339649978311</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3079440779518275</v>
+        <v>0.3068429292723074</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4911534287491425</v>
+        <v>0.4896755717578642</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2760054027985456</v>
+        <v>0.2788142408287173</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4185514433546875</v>
+        <v>0.4206078306065983</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3374533610707356</v>
+        <v>0.3378722794880083</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5546466989755693</v>
+        <v>0.5545663431928997</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4014052743555853</v>
+        <v>0.400545598911273</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5228235383277516</v>
+        <v>0.5231523044542797</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3858186292404988</v>
+        <v>0.3823150534384723</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5125872966414109</v>
+        <v>0.51152599431726</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3305818159578882</v>
+        <v>0.3317821787068104</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4620585355785461</v>
+        <v>0.4607635484457414</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3504426326247497</v>
+        <v>0.3499377051095904</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.4272393023573018</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.4363433802622917</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>81357</v>
+        <v>82488</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57558</v>
+        <v>56500</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>78798</v>
+        <v>78619</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125262</v>
+        <v>125492</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>72737</v>
+        <v>71263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>86520</v>
+        <v>87253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>101771</v>
+        <v>102506</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>145237</v>
+        <v>145969</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>161738</v>
+        <v>161344</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>151881</v>
+        <v>153377</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>190075</v>
+        <v>190985</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>280462</v>
+        <v>280630</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>114159</v>
+        <v>114493</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>89308</v>
+        <v>88076</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112619</v>
+        <v>112270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>162630</v>
+        <v>161457</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>104583</v>
+        <v>102349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>121783</v>
+        <v>121543</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>135979</v>
+        <v>137419</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>174523</v>
+        <v>174948</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>207014</v>
+        <v>205968</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>198659</v>
+        <v>199639</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>236555</v>
+        <v>238524</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>327867</v>
+        <v>329751</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>140890</v>
+        <v>140807</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88980</v>
+        <v>92233</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>127241</v>
+        <v>128629</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>179792</v>
+        <v>180396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>195922</v>
+        <v>195330</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>161401</v>
+        <v>161354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>170111</v>
+        <v>169842</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>267417</v>
+        <v>268137</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>345395</v>
+        <v>347574</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>263233</v>
+        <v>263442</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>310009</v>
+        <v>312304</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>462676</v>
+        <v>461313</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>185516</v>
+        <v>182532</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>126749</v>
+        <v>130085</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>170271</v>
+        <v>169954</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>235543</v>
+        <v>235008</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>241138</v>
+        <v>238740</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>208154</v>
+        <v>208513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>215557</v>
+        <v>215558</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>310777</v>
+        <v>310066</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>408822</v>
+        <v>411320</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>324235</v>
+        <v>322482</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>371708</v>
+        <v>372514</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>533086</v>
+        <v>533329</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116158</v>
+        <v>116238</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46962</v>
+        <v>47645</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>85331</v>
+        <v>86374</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>101140</v>
+        <v>102422</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>119195</v>
+        <v>119651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>52572</v>
+        <v>52880</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>105544</v>
+        <v>107374</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>127383</v>
+        <v>126247</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>242686</v>
+        <v>243577</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>106375</v>
+        <v>107078</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>203037</v>
+        <v>202457</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>238967</v>
+        <v>236278</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>149822</v>
+        <v>151434</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75178</v>
+        <v>75042</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>118653</v>
+        <v>120585</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>135343</v>
+        <v>134119</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>154400</v>
+        <v>154274</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>81978</v>
+        <v>81760</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>141506</v>
+        <v>142978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>157135</v>
+        <v>158909</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>292386</v>
+        <v>293714</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>147357</v>
+        <v>147604</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>250595</v>
+        <v>249973</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>284618</v>
+        <v>282743</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>120235</v>
+        <v>117421</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>86807</v>
+        <v>84930</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66392</v>
+        <v>63146</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>103803</v>
+        <v>106045</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>135332</v>
+        <v>138293</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>111870</v>
+        <v>112354</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>115953</v>
+        <v>117459</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>146780</v>
+        <v>144909</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>266992</v>
+        <v>266392</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>204668</v>
+        <v>210232</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>192142</v>
+        <v>190628</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>257187</v>
+        <v>263789</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155021</v>
+        <v>156238</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>122810</v>
+        <v>120603</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>97239</v>
+        <v>95751</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>152045</v>
+        <v>154453</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>172296</v>
+        <v>172734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>149068</v>
+        <v>149826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>155052</v>
+        <v>154605</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>185485</v>
+        <v>184112</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>320335</v>
+        <v>320882</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>259961</v>
+        <v>261209</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>243321</v>
+        <v>241014</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>320091</v>
+        <v>327404</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81867</v>
+        <v>82019</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47358</v>
+        <v>47117</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59897</v>
+        <v>60433</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13388</v>
+        <v>13496</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>122469</v>
+        <v>121146</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>69510</v>
+        <v>67436</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>91837</v>
+        <v>91764</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24570</v>
+        <v>24150</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212801</v>
+        <v>213486</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>122641</v>
+        <v>124016</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>159270</v>
+        <v>158116</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>40216</v>
+        <v>40659</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110482</v>
+        <v>109992</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>73094</v>
+        <v>75633</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>88968</v>
+        <v>87739</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26605</v>
+        <v>26415</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>149885</v>
+        <v>148648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>97921</v>
+        <v>97786</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>120283</v>
+        <v>119871</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39357</v>
+        <v>38638</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>251670</v>
+        <v>253564</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>161849</v>
+        <v>166060</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>197552</v>
+        <v>199025</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>60362</v>
+        <v>59820</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>82917</v>
+        <v>83971</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>28877</v>
+        <v>28284</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>76810</v>
+        <v>76465</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>99585</v>
+        <v>100116</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>108123</v>
+        <v>107337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41216</v>
+        <v>42149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>97338</v>
+        <v>96917</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>100884</v>
+        <v>100965</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>202487</v>
+        <v>203308</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>77709</v>
+        <v>75527</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>183892</v>
+        <v>183131</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>209197</v>
+        <v>208242</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>116750</v>
+        <v>117003</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52203</v>
+        <v>51448</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>107072</v>
+        <v>107361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>128905</v>
+        <v>129807</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>139683</v>
+        <v>140142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>67620</v>
+        <v>68873</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>130182</v>
+        <v>129511</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>127411</v>
+        <v>125769</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>246171</v>
+        <v>248891</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>113703</v>
+        <v>112033</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>229234</v>
+        <v>228662</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>247412</v>
+        <v>248113</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>244826</v>
+        <v>248537</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>115357</v>
+        <v>115608</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>237745</v>
+        <v>236059</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>179840</v>
+        <v>181829</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>265941</v>
+        <v>263167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>155483</v>
+        <v>155373</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>293725</v>
+        <v>295291</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>289683</v>
+        <v>288142</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>528149</v>
+        <v>526399</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>281564</v>
+        <v>283641</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>547692</v>
+        <v>543530</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>486452</v>
+        <v>481299</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>297697</v>
+        <v>298140</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>159116</v>
+        <v>158015</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>291228</v>
+        <v>288282</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>233880</v>
+        <v>237420</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>314797</v>
+        <v>312777</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>204335</v>
+        <v>203421</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>347638</v>
+        <v>348774</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>342296</v>
+        <v>341654</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>598133</v>
+        <v>594051</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>346005</v>
+        <v>347507</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>625826</v>
+        <v>622663</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>557687</v>
+        <v>558432</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>304223</v>
+        <v>301479</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>165758</v>
+        <v>166024</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>273221</v>
+        <v>273850</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>215926</v>
+        <v>213627</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>359933</v>
+        <v>358675</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>274454</v>
+        <v>273610</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>373042</v>
+        <v>370414</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>270112</v>
+        <v>269054</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>681089</v>
+        <v>679425</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>453428</v>
+        <v>455651</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>658441</v>
+        <v>658965</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>500324</v>
+        <v>498534</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>357495</v>
+        <v>356420</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>215035</v>
+        <v>217224</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>325877</v>
+        <v>327478</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>268487</v>
+        <v>268820</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>417704</v>
+        <v>417643</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>330699</v>
+        <v>329991</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>431940</v>
+        <v>432211</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>319880</v>
+        <v>316975</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>759125</v>
+        <v>757554</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>529906</v>
+        <v>531831</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>741488</v>
+        <v>739410</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>569372</v>
+        <v>568551</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
     </row>
     <row r="40">
